--- a/resources/forms/001-market-baseline.xlsx
+++ b/resources/forms/001-market-baseline.xlsx
@@ -99,7 +99,7 @@
     <t>${Surveyor_Location} = 'other'</t>
   </si>
   <si>
-    <t>. != ''</t>
+    <t>. = ''</t>
   </si>
   <si>
     <t>end_group</t>
@@ -327,7 +327,7 @@
     <t>How much coal (in kilograms) does the vyapaari use every month for ironing clothes?</t>
   </si>
   <si>
-    <t>How_much_time_in_mi_eating_up_coal_daily</t>
+    <t>vyapaari_coal_heating_time</t>
   </si>
   <si>
     <t>How much time (in minutes) does the vyapaari spend heating up coal daily?</t>
@@ -531,7 +531,7 @@
     <t>__version__</t>
   </si>
   <si>
-    <t>'vFQ8RqC78HQUd2KHBS78C3'</t>
+    <t>'vTTZCX7QxFydDzRVSyrmHU'</t>
   </si>
   <si>
     <t>list_name</t>
@@ -798,7 +798,7 @@
     <t>Market Entry Survey and Baseline - Vyapaaris</t>
   </si>
   <si>
-    <t>19 (2022-09-19 10:29:09)</t>
+    <t>20 (2022-11-10 08:20:45)</t>
   </si>
 </sst>
 </file>
